--- a/Tercer_Semestre/Estructura_Datos/Lab_3/Pruebas de escritorio.xlsx
+++ b/Tercer_Semestre/Estructura_Datos/Lab_3/Pruebas de escritorio.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be6870935353ad0d/Escritorio/Repositorios/UMB/Tercer_Semestre/Estructura_Datos/Lab_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="8_{580F7F56-6429-4A56-A19C-C874D07E7610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20E4A3A0-72C2-41C9-AB6B-1CEFD3C43740}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="8_{580F7F56-6429-4A56-A19C-C874D07E7610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15D83F93-FFC3-43B9-A95E-40C9FFDFC344}"/>
   <bookViews>
-    <workbookView xWindow="10512" yWindow="0" windowWidth="12624" windowHeight="12336" xr2:uid="{35EFFB15-6FB2-45FA-A822-D7C61F47DAA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35EFFB15-6FB2-45FA-A822-D7C61F47DAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="184">
   <si>
     <t>arr[]</t>
   </si>
@@ -387,6 +376,207 @@
   </si>
   <si>
     <t>Bucle 3</t>
+  </si>
+  <si>
+    <t>Fase</t>
+  </si>
+  <si>
+    <t>5,4,2,1,3</t>
+  </si>
+  <si>
+    <t>4,5,2,1,3</t>
+  </si>
+  <si>
+    <t>1,3,2,5,4</t>
+  </si>
+  <si>
+    <t>3,1,2,5,4</t>
+  </si>
+  <si>
+    <t>2,1,3,5,4</t>
+  </si>
+  <si>
+    <t>Construcción del heap</t>
+  </si>
+  <si>
+    <t>Extracción máxima</t>
+  </si>
+  <si>
+    <t>Heapify después de extracción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracción máxima	</t>
+  </si>
+  <si>
+    <t>largest=1, left=3, right=4 → largest=4 (4 &gt; 3)</t>
+  </si>
+  <si>
+    <t>largest=0, left=1, right=2 → largest=1 (4 &gt; 5)</t>
+  </si>
+  <si>
+    <t>largest=1, left=3, right=4 → largest=4 (3 &gt; 5)</t>
+  </si>
+  <si>
+    <t>Intercambio arr[0] ⇄ arr[4]</t>
+  </si>
+  <si>
+    <t>largest=0, left=1, right=2 → largest=1 (5 &gt; 3)</t>
+  </si>
+  <si>
+    <t>Intercambio arr[0] ⇄ arr[3]</t>
+  </si>
+  <si>
+    <t>largest=0, left=1, right=2 → largest=1 (3 &gt; 1)</t>
+  </si>
+  <si>
+    <t>Intercambio arr[0] ⇄ arr[2]</t>
+  </si>
+  <si>
+    <t>largest=0, left=1 → largest=1 (1 &gt; 2 = F)</t>
+  </si>
+  <si>
+    <t>Intercambio arr[0] ⇄ arr[1]</t>
+  </si>
+  <si>
+    <t>arr[1] ⇄ arr[4]</t>
+  </si>
+  <si>
+    <t>arr[0] ⇄ arr[1]</t>
+  </si>
+  <si>
+    <t>arr[0] = 3, arr[4] = 4</t>
+  </si>
+  <si>
+    <t>arr[0] = 1, arr[3] = 5</t>
+  </si>
+  <si>
+    <t>arr[0] = 2, arr[2] = 3</t>
+  </si>
+  <si>
+    <t>arr[0] = 1, arr[1] = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (largest, left, right)</t>
+  </si>
+  <si>
+    <t>Heapify</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Paso</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Arreglo Actual</t>
+  </si>
+  <si>
+    <t>[5, 3, 2, 1, 4]</t>
+  </si>
+  <si>
+    <t>Paso 1: Primera llamada a quickSortRec</t>
+  </si>
+  <si>
+    <t>Estado del arreglo</t>
+  </si>
+  <si>
+    <t>Paso 2: Primera llamada a partition (Pivote = 4)</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>No (5 &gt; 4)</t>
+  </si>
+  <si>
+    <t>Si (3 &lt; 4)</t>
+  </si>
+  <si>
+    <t>Si (2 &lt; 4)</t>
+  </si>
+  <si>
+    <t>Si (1 &lt; 4)</t>
+  </si>
+  <si>
+    <t>arr[0] ↔ arr[1]</t>
+  </si>
+  <si>
+    <t>arr[1] ↔ arr[2]</t>
+  </si>
+  <si>
+    <t>arr[2] ↔ arr[3]</t>
+  </si>
+  <si>
+    <t>arr[3] ↔ arr[4]</t>
+  </si>
+  <si>
+    <t>[3, 5, 2, 1, 4]</t>
+  </si>
+  <si>
+    <t>[3, 2, 5, 1, 4]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1, 5, 4]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1, 4, 5]</t>
+  </si>
+  <si>
+    <t>Índice j</t>
+  </si>
+  <si>
+    <t>i antes</t>
+  </si>
+  <si>
+    <t>Comparación arr[j] &lt; pivote (4)</t>
+  </si>
+  <si>
+    <t>i después</t>
+  </si>
+  <si>
+    <t>Nuevo pivote (pi) = 3</t>
+  </si>
+  <si>
+    <t>No (3 &gt; 1)</t>
+  </si>
+  <si>
+    <t>No (2 &lt; 1)</t>
+  </si>
+  <si>
+    <t>arr[0] ↔ arr[2]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>Nuevo pivote (pi) = 0</t>
+  </si>
+  <si>
+    <t>No (2 &gt; 3)</t>
+  </si>
+  <si>
+    <t>arr[1] ↔ arr[1]</t>
+  </si>
+  <si>
+    <t>arr[2] ↔ arr[2]</t>
+  </si>
+  <si>
+    <t>Arreglo Final</t>
+  </si>
+  <si>
+    <t>Ordenado</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
   </si>
 </sst>
 </file>
@@ -579,12 +769,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -593,26 +780,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
@@ -627,13 +795,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,19 +816,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,1365 +1171,2123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6418B54-F77D-427E-9F50-88691D46741A}">
-  <dimension ref="B1:N55"/>
+  <dimension ref="B1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
-    <col min="3" max="7" width="11.5546875" style="1"/>
-    <col min="8" max="8" width="46.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="4" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3"/>
+      <c r="J3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="17">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="C6" s="18"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="C7" s="18"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="3">
+      <c r="C8" s="18"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="2">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="C9" s="18"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="C10" s="18"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>3</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="C11" s="18"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>3</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="3">
+      <c r="C14" s="19"/>
+      <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="7" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="4" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="17">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>-1</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3">
+      <c r="C23" s="18"/>
+      <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3">
+      <c r="C24" s="18"/>
+      <c r="D24" s="2">
         <v>4</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>3</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="3">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>-1</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>-1</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="3">
+      <c r="C28" s="19"/>
+      <c r="D28" s="2">
         <v>3</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>3</v>
       </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="7" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="16"/>
-    </row>
-    <row r="32" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
+    <row r="29" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="32" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="4" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33"/>
+      <c r="G33" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="14" t="s">
+      <c r="H33" s="16"/>
+      <c r="I33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="2" t="s">
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="M33" s="10"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="10">
         <v>5</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="3">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
         <v>3</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="3" t="s">
+      <c r="M35" s="10"/>
+      <c r="N35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J36" s="3">
-        <v>2</v>
-      </c>
-      <c r="K36" s="3">
-        <v>2</v>
-      </c>
-      <c r="L36" s="2" t="s">
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="3" t="s">
+      <c r="M36" s="10"/>
+      <c r="N36" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
         <v>3</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>3</v>
       </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2" t="s">
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="3" t="s">
+      <c r="M37" s="10"/>
+      <c r="N37" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3">
+      <c r="C38" s="10"/>
+      <c r="D38" s="2">
         <v>3</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>3</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>4</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>4</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>4</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="3" t="s">
+      <c r="M38" s="10"/>
+      <c r="N38" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J39" s="3">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3">
-        <v>2</v>
-      </c>
-      <c r="L39" s="2" t="s">
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2</v>
+      </c>
+      <c r="L39" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="3" t="s">
+      <c r="M39" s="10"/>
+      <c r="N39" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J40" s="3">
-        <v>2</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2" t="s">
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="3" t="s">
+      <c r="M40" s="10"/>
+      <c r="N40" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="3">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2" t="s">
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="3" t="s">
+      <c r="M41" s="10"/>
+      <c r="N41" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="3" t="s">
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="14" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="14" t="s">
+      <c r="F47" s="12"/>
+      <c r="G47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="18"/>
-    </row>
-    <row r="48" spans="2:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="2:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="13" t="s">
+      <c r="E48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J48" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K48" s="27" t="s">
+      <c r="K48" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
+    <row r="49" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="10">
         <v>5</v>
       </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2</v>
-      </c>
-      <c r="H49" s="11" t="s">
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3">
+      <c r="C50" s="10"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
         <v>3</v>
       </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
         <v>3</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3">
+      <c r="C51" s="10"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
         <v>4</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>4</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>4</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="11" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3">
-        <v>2</v>
-      </c>
-      <c r="G53" s="3">
-        <v>2</v>
-      </c>
-      <c r="H53" s="11" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3">
+      <c r="C54" s="10"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
         <v>3</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>3</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>3</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3">
+      <c r="C55" s="10"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
         <v>4</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>4</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>4</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="4" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="59" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="2">
+        <v>4</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="8"/>
+    </row>
+    <row r="74" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="76" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="I47:K47"/>
+  <mergeCells count="43">
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B94:H94"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="E5:E14"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="L42:M42"/>
@@ -2364,36 +3295,10 @@
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
     <mergeCell ref="L39:M39"/>
-    <mergeCell ref="C5:C14"/>
-    <mergeCell ref="E5:E14"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
